--- a/contact/ContactMeasurementsSummary.xlsx
+++ b/contact/ContactMeasurementsSummary.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Chip\3D s-wave internal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kierapond/Documents/GitHub/analysis/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5651880E-D2F2-1A4E-897D-8C3CC0BECA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2535" windowWidth="21600" windowHeight="11835"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="25860" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
     <sheet name=" 7 to 5" sheetId="3" r:id="rId2"/>
     <sheet name="9 to 7" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -412,7 +424,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -546,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -580,23 +592,14 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2769,40 +2772,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="77" customWidth="1"/>
-    <col min="25" max="25" width="48.7109375" customWidth="1"/>
+    <col min="25" max="25" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
@@ -2815,10 +2818,10 @@
       <c r="D1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -2885,7 +2888,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>45134</v>
       </c>
@@ -2898,10 +2901,10 @@
       <c r="D2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="2">
         <v>3.6</v>
       </c>
       <c r="G2" s="2">
@@ -2958,7 +2961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>45134</v>
       </c>
@@ -2971,10 +2974,10 @@
       <c r="D3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="2">
         <v>1.84</v>
       </c>
       <c r="G3" s="2">
@@ -3033,7 +3036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>45135</v>
       </c>
@@ -3046,10 +3049,10 @@
       <c r="D4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="2">
         <v>1.08</v>
       </c>
       <c r="G4" s="2">
@@ -3108,7 +3111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>45135</v>
       </c>
@@ -3121,10 +3124,10 @@
       <c r="D5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="2">
         <v>0.48</v>
       </c>
       <c r="G5" s="2">
@@ -3183,7 +3186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>45140</v>
       </c>
@@ -3196,10 +3199,10 @@
       <c r="D6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="2">
         <v>0.48</v>
       </c>
       <c r="G6" s="2">
@@ -3258,7 +3261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>45140</v>
       </c>
@@ -3271,10 +3274,10 @@
       <c r="D7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="2">
         <v>0.48</v>
       </c>
       <c r="G7" s="2">
@@ -3318,7 +3321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>45140</v>
       </c>
@@ -3331,10 +3334,10 @@
       <c r="D8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="2">
         <v>3.6</v>
       </c>
       <c r="G8" s="2">
@@ -3378,7 +3381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>45140</v>
       </c>
@@ -3391,10 +3394,10 @@
       <c r="D9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="2">
         <v>3.6</v>
       </c>
       <c r="G9" s="2">
@@ -3438,7 +3441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>45140</v>
       </c>
@@ -3451,10 +3454,10 @@
       <c r="D10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="1">
         <v>6.5</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="2">
@@ -3498,7 +3501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>45140</v>
       </c>
@@ -3511,10 +3514,10 @@
       <c r="D11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="1">
         <v>4.3</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="2">
         <v>1.56</v>
       </c>
       <c r="G11" s="2">
@@ -3558,7 +3561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>45141</v>
       </c>
@@ -3571,10 +3574,10 @@
       <c r="D12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12">
         <v>1.67</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="2">
         <v>0.26400000000000001</v>
       </c>
       <c r="G12" s="2">
@@ -3633,7 +3636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>45141</v>
       </c>
@@ -3646,10 +3649,10 @@
       <c r="D13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="1">
         <v>4.3</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="2">
         <v>1.6</v>
       </c>
       <c r="G13" s="2">
@@ -3690,7 +3693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>45146</v>
       </c>
@@ -3703,7 +3706,7 @@
       <c r="D14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" t="s">
         <v>68</v>
       </c>
       <c r="I14">
@@ -3738,7 +3741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>45152</v>
       </c>
@@ -3751,7 +3754,7 @@
       <c r="D15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" t="s">
         <v>68</v>
       </c>
       <c r="I15">
@@ -3786,7 +3789,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>45153</v>
       </c>
@@ -3799,10 +3802,10 @@
       <c r="D16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16">
         <v>1.6</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="2">
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="G16" s="2">
@@ -3841,7 +3844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>45154</v>
       </c>
@@ -3854,7 +3857,7 @@
       <c r="D17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="2">
@@ -3895,7 +3898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>45154</v>
       </c>
@@ -3908,7 +3911,7 @@
       <c r="D18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="2">
@@ -3946,7 +3949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>45154</v>
       </c>
@@ -3956,13 +3959,13 @@
       <c r="C19" s="19">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>2.5</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <v>2.64E-2</v>
       </c>
       <c r="G19" s="2">
@@ -4001,7 +4004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>45155</v>
       </c>
@@ -4011,13 +4014,13 @@
       <c r="C20" s="19">
         <v>3</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="21"/>
       <c r="H20" s="14"/>
       <c r="I20">
@@ -4051,7 +4054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>45155</v>
       </c>
@@ -4061,13 +4064,13 @@
       <c r="C21" s="19">
         <v>3</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="21"/>
       <c r="H21" s="14"/>
       <c r="I21">
@@ -4101,7 +4104,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>45159</v>
       </c>
@@ -4111,13 +4114,13 @@
       <c r="C22" s="19">
         <v>3</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="21"/>
       <c r="I22" t="s">
         <v>68</v>
@@ -4153,7 +4156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>45160</v>
       </c>
@@ -4163,13 +4166,13 @@
       <c r="C23" s="19">
         <v>3</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="21"/>
       <c r="I23" t="s">
         <v>68</v>
@@ -4205,7 +4208,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>45161</v>
       </c>
@@ -4215,13 +4218,13 @@
       <c r="C24" s="19">
         <v>3</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="21"/>
       <c r="I24" t="s">
         <v>68</v>
@@ -4257,7 +4260,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>45162</v>
       </c>
@@ -4267,13 +4270,13 @@
       <c r="C25" s="19">
         <v>3</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>10</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <v>3.6</v>
       </c>
       <c r="G25" s="2">
@@ -4294,7 +4297,7 @@
       <c r="R25" s="13">
         <v>0.95</v>
       </c>
-      <c r="S25" s="30">
+      <c r="S25" s="24">
         <v>76837</v>
       </c>
       <c r="T25" s="13">
@@ -4311,7 +4314,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>45162</v>
       </c>
@@ -4321,13 +4324,13 @@
       <c r="C26" s="19">
         <v>3</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <v>3</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="23">
         <v>1.08</v>
       </c>
       <c r="G26" s="2">
@@ -4349,7 +4352,7 @@
       <c r="R26" s="13">
         <v>0.95</v>
       </c>
-      <c r="S26" s="30">
+      <c r="S26" s="24">
         <v>76837</v>
       </c>
       <c r="T26" s="13">
@@ -4366,7 +4369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>45146</v>
       </c>
@@ -4379,7 +4382,7 @@
       <c r="D27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" t="s">
         <v>68</v>
       </c>
       <c r="I27">
@@ -4417,7 +4420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>45167</v>
       </c>
@@ -4427,13 +4430,13 @@
       <c r="C28" s="19">
         <v>3</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <v>3</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="23">
         <v>1.08</v>
       </c>
       <c r="G28" s="2">
@@ -4455,7 +4458,7 @@
       <c r="R28" s="13">
         <v>0.95</v>
       </c>
-      <c r="S28" s="30">
+      <c r="S28" s="24">
         <v>88709</v>
       </c>
       <c r="T28" s="13">
@@ -4472,7 +4475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>45168</v>
       </c>
@@ -4482,13 +4485,13 @@
       <c r="C29" s="19">
         <v>3</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="21"/>
       <c r="I29" t="s">
         <v>68</v>
@@ -4524,7 +4527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>45168</v>
       </c>
@@ -4534,13 +4537,13 @@
       <c r="C30" s="19">
         <v>3</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="21"/>
       <c r="I30" t="s">
         <v>68</v>
@@ -4576,7 +4579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>45176</v>
       </c>
@@ -4586,13 +4589,13 @@
       <c r="C31" s="19">
         <v>3</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31">
         <v>2.5</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31">
         <v>0.48799999999999999</v>
       </c>
       <c r="G31" s="2">
@@ -4631,7 +4634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>45176</v>
       </c>
@@ -4641,13 +4644,13 @@
       <c r="C32" s="19">
         <v>3</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32">
         <v>2.7</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32">
         <v>0.92</v>
       </c>
       <c r="G32" s="2">
@@ -4686,7 +4689,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>45177</v>
       </c>
@@ -4696,13 +4699,13 @@
       <c r="C33" s="19">
         <v>3</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="23">
         <v>2</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="23">
         <v>0.48799999999999999</v>
       </c>
       <c r="G33" s="2">
@@ -4741,7 +4744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>45176</v>
       </c>
@@ -4751,13 +4754,13 @@
       <c r="C34" s="19">
         <v>3</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34">
         <v>2.7</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34">
         <v>0.92</v>
       </c>
       <c r="G34" s="2">
@@ -4796,7 +4799,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>45177</v>
       </c>
@@ -4806,10 +4809,10 @@
       <c r="C35" s="19">
         <v>3</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="I35">
@@ -4836,14 +4839,14 @@
       <c r="W35" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X35" s="32" t="s">
+      <c r="X35" s="25" t="s">
         <v>109</v>
       </c>
       <c r="Y35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>45177</v>
       </c>
@@ -4853,10 +4856,10 @@
       <c r="C36" s="19">
         <v>3</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" t="s">
         <v>68</v>
       </c>
       <c r="I36">
@@ -4883,14 +4886,14 @@
       <c r="W36" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X36" s="32" t="s">
+      <c r="X36" s="25" t="s">
         <v>109</v>
       </c>
       <c r="Y36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>45177</v>
       </c>
@@ -4900,10 +4903,10 @@
       <c r="C37" s="19">
         <v>3</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" t="s">
         <v>68</v>
       </c>
       <c r="I37">
@@ -4930,14 +4933,14 @@
       <c r="W37" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X37" s="32" t="s">
+      <c r="X37" s="25" t="s">
         <v>109</v>
       </c>
       <c r="Y37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>45180</v>
       </c>
@@ -4947,10 +4950,10 @@
       <c r="C38" s="19">
         <v>3</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" t="s">
         <v>68</v>
       </c>
       <c r="I38">
@@ -4977,14 +4980,14 @@
       <c r="W38" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X38" s="32" t="s">
+      <c r="X38" s="25" t="s">
         <v>111</v>
       </c>
       <c r="Y38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>45180</v>
       </c>
@@ -4994,10 +4997,10 @@
       <c r="C39" s="19">
         <v>3</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" t="s">
         <v>68</v>
       </c>
       <c r="I39">
@@ -5024,14 +5027,14 @@
       <c r="W39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X39" s="32" t="s">
+      <c r="X39" s="25" t="s">
         <v>111</v>
       </c>
       <c r="Y39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>45180</v>
       </c>
@@ -5041,10 +5044,10 @@
       <c r="C40" s="19">
         <v>3</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="I40">
@@ -5071,14 +5074,14 @@
       <c r="W40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X40" s="32" t="s">
+      <c r="X40" s="25" t="s">
         <v>111</v>
       </c>
       <c r="Y40" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>45180</v>
       </c>
@@ -5088,10 +5091,10 @@
       <c r="C41" s="19">
         <v>3</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" t="s">
         <v>68</v>
       </c>
       <c r="I41">
@@ -5118,14 +5121,14 @@
       <c r="W41" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X41" s="32" t="s">
+      <c r="X41" s="25" t="s">
         <v>111</v>
       </c>
       <c r="Y41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>45406</v>
       </c>
@@ -5135,10 +5138,10 @@
       <c r="C42" s="19">
         <v>3</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="I42">
@@ -5172,7 +5175,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>45406</v>
       </c>
@@ -5182,10 +5185,10 @@
       <c r="C43" s="19">
         <v>3</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="I43">
@@ -5219,7 +5222,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>45406</v>
       </c>
@@ -5229,10 +5232,10 @@
       <c r="C44" s="19">
         <v>3</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="I44">
@@ -5266,7 +5269,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>45436</v>
       </c>
@@ -5276,10 +5279,10 @@
       <c r="C45" s="19">
         <v>3</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="I45">
@@ -5313,7 +5316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>45440</v>
       </c>
@@ -5323,10 +5326,10 @@
       <c r="C46" s="19">
         <v>3</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="I46">
@@ -5360,7 +5363,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>45450</v>
       </c>
@@ -5370,10 +5373,10 @@
       <c r="C47" s="19">
         <v>3</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="I47">
@@ -5414,30 +5417,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5488,7 +5491,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="4">
         <v>5</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -5565,7 +5568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>1.67</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G9">
         <v>10</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G11">
         <v>3</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G12">
         <v>2</v>
       </c>
@@ -5657,29 +5660,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5703,7 +5706,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5727,7 +5730,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +5754,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5775,7 +5778,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5798,7 +5801,7 @@
       <c r="J5" s="3"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G9">
         <v>10</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G11">
         <v>3</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G12">
         <v>2</v>
       </c>
